--- a/assets/data_science/anscombes.xlsx
+++ b/assets/data_science/anscombes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesleyBeckner\Documents\apps\technology_explorers\assets\data_science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1F3236-1389-4FF3-8AAA-482CA9EB4B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92FD9BB-A743-4D1D-ADF8-541BD43DF67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1098" yWindow="1098" windowWidth="20682" windowHeight="11826" xr2:uid="{83160C48-08B3-4840-A60E-66C430E29573}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>III</t>
   </si>
   <si>
-    <t>VI</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>IV</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -422,33 +422,33 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
